--- a/Risk Assessment/data/VNM_1_statistic.xlsx
+++ b/Risk Assessment/data/VNM_1_statistic.xlsx
@@ -13,11 +13,11 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1586665606" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1586665606" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1586665606"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1586665606"/>
-      <pm:sortOptions xmlns:pm="smNativeData" id="1586665606">
+      <pm:revision xmlns:pm="smNativeData" day="1586694348" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1586694348" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1586694348" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1586694348"/>
+      <pm:sortOptions xmlns:pm="smNativeData" id="1586694348">
         <pm:column colId="3"/>
         <pm:column colId="-1"/>
         <pm:column colId="-1"/>
@@ -269,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -278,9 +278,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD;@"/>
+    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -290,7 +288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586665606" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1586694348" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -312,7 +310,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586665606" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1586694348" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -334,7 +332,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586665606"/>
+          <pm:border xmlns:pm="smNativeData" id="1586694348"/>
         </ext>
       </extLst>
     </border>
@@ -353,7 +351,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586665606"/>
+          <pm:border xmlns:pm="smNativeData" id="1586694348"/>
         </ext>
       </extLst>
     </border>
@@ -361,10 +359,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -372,7 +369,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1586665606" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1586694348" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -636,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L243"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -677,7 +674,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E2" t="s">
@@ -697,7 +694,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E3" t="s">
@@ -717,7 +714,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E4" t="s">
@@ -737,7 +734,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E5" t="s">
@@ -747,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" t="n">
         <v>22</v>
       </c>
@@ -757,7 +754,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -771,7 +768,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -785,7 +782,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -799,7 +796,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -813,7 +810,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -827,7 +824,7 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -841,7 +838,7 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -855,7 +852,7 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -869,7 +866,7 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -883,7 +880,7 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -897,7 +894,7 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -911,7 +908,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -925,7 +922,7 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -939,7 +936,7 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -953,7 +950,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -967,7 +964,7 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -981,11 +978,11 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" t="n">
         <v>42</v>
       </c>
@@ -995,11 +992,11 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" t="n">
         <v>43</v>
       </c>
@@ -1009,7 +1006,7 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -1023,7 +1020,7 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -1037,7 +1034,7 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E26" t="s">
@@ -1047,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:4">
       <c r="A27" t="n">
         <v>48</v>
       </c>
@@ -1057,7 +1054,7 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -1071,7 +1068,7 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="1" t="n">
         <v>43892</v>
       </c>
     </row>
@@ -1085,7 +1082,7 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="E29" t="s">
@@ -1095,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:4">
       <c r="A30" t="n">
         <v>45</v>
       </c>
@@ -1105,11 +1102,11 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="1" t="n">
         <v>43893</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:4">
       <c r="A31" t="n">
         <v>100</v>
       </c>
@@ -1119,11 +1116,11 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="1" t="n">
         <v>43893</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:4">
       <c r="A32" t="n">
         <v>18</v>
       </c>
@@ -1133,7 +1130,7 @@
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="1" t="n">
         <v>43894</v>
       </c>
     </row>
@@ -1147,11 +1144,11 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="1" t="n">
         <v>43894</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="n">
         <v>39</v>
       </c>
@@ -1161,14 +1158,14 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:4">
       <c r="A35" t="n">
         <v>61</v>
       </c>
@@ -1178,11 +1175,11 @@
       <c r="C35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="1" t="n">
         <v>43894</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:4">
       <c r="A36" t="n">
         <v>67</v>
       </c>
@@ -1192,7 +1189,7 @@
       <c r="C36" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="1" t="n">
         <v>43894</v>
       </c>
     </row>
@@ -1206,7 +1203,7 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="1" t="n">
         <v>43896</v>
       </c>
     </row>
@@ -1220,14 +1217,14 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" t="n">
         <v>65</v>
       </c>
@@ -1237,7 +1234,7 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="1" t="n">
         <v>43897</v>
       </c>
     </row>
@@ -1251,14 +1248,14 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="1" t="n">
         <v>43897</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" t="n">
         <v>54</v>
       </c>
@@ -1268,11 +1265,11 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="1" t="n">
         <v>43898</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:4">
       <c r="A42" t="n">
         <v>91</v>
       </c>
@@ -1282,11 +1279,11 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="1" t="n">
         <v>43898</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:4">
       <c r="A43" t="n">
         <v>32</v>
       </c>
@@ -1296,7 +1293,7 @@
       <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1310,7 +1307,7 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E44" t="s">
@@ -1330,7 +1327,7 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E45" t="s">
@@ -1340,7 +1337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:4">
       <c r="A46" t="n">
         <v>52</v>
       </c>
@@ -1350,11 +1347,11 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:4">
       <c r="A47" t="n">
         <v>57</v>
       </c>
@@ -1364,11 +1361,11 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:4">
       <c r="A48" t="n">
         <v>60</v>
       </c>
@@ -1378,7 +1375,7 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1392,7 +1389,7 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1406,7 +1403,7 @@
       <c r="C50" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1420,7 +1417,7 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1434,11 +1431,11 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:4">
       <c r="A53" t="n">
         <v>169</v>
       </c>
@@ -1448,11 +1445,11 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:4">
       <c r="A54" t="n">
         <v>174</v>
       </c>
@@ -1462,11 +1459,11 @@
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:4">
       <c r="A55" t="n">
         <v>175</v>
       </c>
@@ -1476,11 +1473,11 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:4">
       <c r="A56" t="n">
         <v>176</v>
       </c>
@@ -1490,7 +1487,7 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1504,7 +1501,7 @@
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1518,7 +1515,7 @@
       <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1532,14 +1529,14 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:4">
       <c r="A60" t="n">
         <v>188</v>
       </c>
@@ -1549,7 +1546,7 @@
       <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1563,14 +1560,14 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:4">
       <c r="A62" t="n">
         <v>190</v>
       </c>
@@ -1580,11 +1577,11 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:4">
       <c r="A63" t="n">
         <v>191</v>
       </c>
@@ -1594,7 +1591,7 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1608,7 +1605,7 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1622,7 +1619,7 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1636,7 +1633,7 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1650,11 +1647,11 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:4">
       <c r="A68" t="n">
         <v>196</v>
       </c>
@@ -1664,11 +1661,11 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:4">
       <c r="A69" t="n">
         <v>198</v>
       </c>
@@ -1678,11 +1675,11 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:4">
       <c r="A70" t="n">
         <v>199</v>
       </c>
@@ -1692,11 +1689,11 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:4">
       <c r="A71" t="n">
         <v>200</v>
       </c>
@@ -1706,11 +1703,11 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:4">
       <c r="A72" t="n">
         <v>201</v>
       </c>
@@ -1720,11 +1717,11 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:4">
       <c r="A73" t="n">
         <v>202</v>
       </c>
@@ -1734,7 +1731,7 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1748,7 +1745,7 @@
       <c r="C74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1762,7 +1759,7 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="1" t="n">
         <v>43899</v>
       </c>
     </row>
@@ -1776,7 +1773,7 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E76" t="s">
@@ -1793,14 +1790,14 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="1" t="n">
         <v>43899</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:4">
       <c r="A78" t="n">
         <v>53</v>
       </c>
@@ -1810,7 +1807,7 @@
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="1" t="n">
         <v>43900</v>
       </c>
     </row>
@@ -1824,7 +1821,7 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="1" t="n">
         <v>43900</v>
       </c>
     </row>
@@ -1838,7 +1835,7 @@
       <c r="C80" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="1" t="n">
         <v>43900</v>
       </c>
     </row>
@@ -1852,7 +1849,7 @@
       <c r="C81" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="1" t="n">
         <v>43900</v>
       </c>
     </row>
@@ -1866,7 +1863,7 @@
       <c r="C82" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="1" t="n">
         <v>43900</v>
       </c>
     </row>
@@ -1880,7 +1877,7 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="1" t="n">
         <v>43901</v>
       </c>
     </row>
@@ -1894,7 +1891,7 @@
       <c r="C84" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="1" t="n">
         <v>43901</v>
       </c>
     </row>
@@ -1908,7 +1905,7 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="E85" t="s">
@@ -1928,7 +1925,7 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="E86" t="s">
@@ -1938,7 +1935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:4">
       <c r="A87" t="n">
         <v>148</v>
       </c>
@@ -1948,7 +1945,7 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="1" t="n">
         <v>43902</v>
       </c>
     </row>
@@ -1962,7 +1959,7 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="1" t="n">
         <v>43902</v>
       </c>
     </row>
@@ -1976,11 +1973,11 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="1" t="n">
         <v>43902</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:5">
       <c r="A90" t="n">
         <v>213</v>
       </c>
@@ -1990,14 +1987,14 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="E90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:4">
       <c r="A91" t="n">
         <v>243</v>
       </c>
@@ -2007,11 +2004,11 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="1" t="n">
         <v>43902</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:5">
       <c r="A92" t="n">
         <v>69</v>
       </c>
@@ -2021,14 +2018,14 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="E92" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:4">
       <c r="A93" t="n">
         <v>150</v>
       </c>
@@ -2038,11 +2035,11 @@
       <c r="C93" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="1" t="n">
         <v>43903</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:4">
       <c r="A94" t="n">
         <v>187</v>
       </c>
@@ -2052,11 +2049,11 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="1" t="n">
         <v>43903</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:4">
       <c r="A95" t="n">
         <v>55</v>
       </c>
@@ -2066,11 +2063,11 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:4">
       <c r="A96" t="n">
         <v>68</v>
       </c>
@@ -2080,11 +2077,11 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:4">
       <c r="A97" t="n">
         <v>97</v>
       </c>
@@ -2094,11 +2091,11 @@
       <c r="C97" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:4">
       <c r="A98" t="n">
         <v>98</v>
       </c>
@@ -2108,11 +2105,11 @@
       <c r="C98" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:4">
       <c r="A99" t="n">
         <v>120</v>
       </c>
@@ -2122,11 +2119,11 @@
       <c r="C99" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:4">
       <c r="A100" t="n">
         <v>124</v>
       </c>
@@ -2136,11 +2133,11 @@
       <c r="C100" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:4">
       <c r="A101" t="n">
         <v>125</v>
       </c>
@@ -2150,11 +2147,11 @@
       <c r="C101" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:4">
       <c r="A102" t="n">
         <v>126</v>
       </c>
@@ -2164,7 +2161,7 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2178,7 +2175,7 @@
       <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2192,7 +2189,7 @@
       <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2206,7 +2203,7 @@
       <c r="C105" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2220,7 +2217,7 @@
       <c r="C106" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2234,7 +2231,7 @@
       <c r="C107" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2248,7 +2245,7 @@
       <c r="C108" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
       <c r="C109" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="1" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -2276,7 +2273,7 @@
       <c r="C110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E110" t="s">
@@ -2296,7 +2293,7 @@
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E111" t="s">
@@ -2306,7 +2303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:4">
       <c r="A112" t="n">
         <v>75</v>
       </c>
@@ -2316,11 +2313,11 @@
       <c r="C112" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:4">
       <c r="A113" t="n">
         <v>79</v>
       </c>
@@ -2330,11 +2327,11 @@
       <c r="C113" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:4">
       <c r="A114" t="n">
         <v>80</v>
       </c>
@@ -2344,7 +2341,7 @@
       <c r="C114" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
@@ -2358,11 +2355,11 @@
       <c r="C115" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:4">
       <c r="A116" t="n">
         <v>82</v>
       </c>
@@ -2372,11 +2369,11 @@
       <c r="C116" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:4">
       <c r="A117" t="n">
         <v>83</v>
       </c>
@@ -2386,7 +2383,7 @@
       <c r="C117" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
@@ -2400,14 +2397,14 @@
       <c r="C118" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:5">
       <c r="A119" t="n">
         <v>114</v>
       </c>
@@ -2417,14 +2414,14 @@
       <c r="C119" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:4">
       <c r="A120" t="n">
         <v>119</v>
       </c>
@@ -2434,11 +2431,11 @@
       <c r="C120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:4">
       <c r="A121" t="n">
         <v>137</v>
       </c>
@@ -2448,11 +2445,11 @@
       <c r="C121" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:4">
       <c r="A122" t="n">
         <v>151</v>
       </c>
@@ -2462,11 +2459,11 @@
       <c r="C122" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:4">
       <c r="A123" t="n">
         <v>152</v>
       </c>
@@ -2476,11 +2473,11 @@
       <c r="C123" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:4">
       <c r="A124" t="n">
         <v>185</v>
       </c>
@@ -2490,11 +2487,11 @@
       <c r="C124" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:4">
       <c r="A125" t="n">
         <v>204</v>
       </c>
@@ -2504,11 +2501,11 @@
       <c r="C125" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:4">
       <c r="A126" t="n">
         <v>206</v>
       </c>
@@ -2518,11 +2515,11 @@
       <c r="C126" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:4">
       <c r="A127" t="n">
         <v>207</v>
       </c>
@@ -2532,11 +2529,11 @@
       <c r="C127" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:4">
       <c r="A128" t="n">
         <v>224</v>
       </c>
@@ -2546,7 +2543,7 @@
       <c r="C128" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
@@ -2560,7 +2557,7 @@
       <c r="C129" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="1" t="n">
         <v>43905</v>
       </c>
     </row>
@@ -2574,14 +2571,14 @@
       <c r="C130" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E130" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:4">
       <c r="A131" t="n">
         <v>64</v>
       </c>
@@ -2591,11 +2588,11 @@
       <c r="C131" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:4">
       <c r="A132" t="n">
         <v>66</v>
       </c>
@@ -2605,11 +2602,11 @@
       <c r="C132" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:5">
       <c r="A133" t="n">
         <v>70</v>
       </c>
@@ -2619,14 +2616,14 @@
       <c r="C133" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E133" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:5">
       <c r="A134" t="n">
         <v>71</v>
       </c>
@@ -2636,14 +2633,14 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E134" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:4">
       <c r="A135" t="n">
         <v>74</v>
       </c>
@@ -2653,7 +2650,7 @@
       <c r="C135" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
@@ -2667,7 +2664,7 @@
       <c r="C136" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
@@ -2681,7 +2678,7 @@
       <c r="C137" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
@@ -2695,7 +2692,7 @@
       <c r="C138" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="1" t="n">
         <v>43906</v>
       </c>
     </row>
@@ -2709,7 +2706,7 @@
       <c r="C139" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E139" t="s">
@@ -2719,7 +2716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:5">
       <c r="A140" t="n">
         <v>77</v>
       </c>
@@ -2729,7 +2726,7 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E140" t="s">
@@ -2746,14 +2743,14 @@
       <c r="C141" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:4">
       <c r="A142" t="n">
         <v>89</v>
       </c>
@@ -2763,7 +2760,7 @@
       <c r="C142" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
@@ -2777,7 +2774,7 @@
       <c r="C143" t="s">
         <v>45</v>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
@@ -2791,7 +2788,7 @@
       <c r="C144" t="s">
         <v>46</v>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
@@ -2805,7 +2802,7 @@
       <c r="C145" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E145" t="s">
@@ -2815,7 +2812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:6">
       <c r="A146" t="n">
         <v>162</v>
       </c>
@@ -2825,7 +2822,7 @@
       <c r="C146" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E146" t="s">
@@ -2835,7 +2832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:6">
       <c r="A147" t="n">
         <v>163</v>
       </c>
@@ -2845,7 +2842,7 @@
       <c r="C147" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E147" t="s">
@@ -2855,7 +2852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:4">
       <c r="A148" t="n">
         <v>203</v>
       </c>
@@ -2865,11 +2862,11 @@
       <c r="C148" t="s">
         <v>15</v>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:4">
       <c r="A149" t="n">
         <v>220</v>
       </c>
@@ -2879,11 +2876,11 @@
       <c r="C149" t="s">
         <v>23</v>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:4">
       <c r="A150" t="n">
         <v>234</v>
       </c>
@@ -2893,7 +2890,7 @@
       <c r="C150" t="s">
         <v>23</v>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="1" t="n">
         <v>43907</v>
       </c>
     </row>
@@ -2907,14 +2904,14 @@
       <c r="C151" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:5">
       <c r="A152" t="n">
         <v>85</v>
       </c>
@@ -2924,14 +2921,14 @@
       <c r="C152" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:5">
       <c r="A153" t="n">
         <v>93</v>
       </c>
@@ -2941,14 +2938,14 @@
       <c r="C153" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E153" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:4">
       <c r="A154" t="n">
         <v>94</v>
       </c>
@@ -2958,11 +2955,11 @@
       <c r="C154" t="s">
         <v>48</v>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:4">
       <c r="A155" t="n">
         <v>95</v>
       </c>
@@ -2972,7 +2969,7 @@
       <c r="C155" t="s">
         <v>15</v>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
@@ -2986,11 +2983,11 @@
       <c r="C156" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:4">
       <c r="A157" t="n">
         <v>101</v>
       </c>
@@ -3000,11 +2997,11 @@
       <c r="C157" t="s">
         <v>23</v>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:5">
       <c r="A158" t="n">
         <v>102</v>
       </c>
@@ -3014,14 +3011,14 @@
       <c r="C158" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E158" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:4">
       <c r="A159" t="n">
         <v>103</v>
       </c>
@@ -3031,11 +3028,11 @@
       <c r="C159" t="s">
         <v>23</v>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:4">
       <c r="A160" t="n">
         <v>104</v>
       </c>
@@ -3045,11 +3042,11 @@
       <c r="C160" t="s">
         <v>23</v>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:4">
       <c r="A161" t="n">
         <v>105</v>
       </c>
@@ -3059,11 +3056,11 @@
       <c r="C161" t="s">
         <v>23</v>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:4">
       <c r="A162" t="n">
         <v>106</v>
       </c>
@@ -3073,11 +3070,11 @@
       <c r="C162" t="s">
         <v>23</v>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:5">
       <c r="A163" t="n">
         <v>108</v>
       </c>
@@ -3087,14 +3084,14 @@
       <c r="C163" t="s">
         <v>23</v>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:5">
       <c r="A164" t="n">
         <v>112</v>
       </c>
@@ -3104,14 +3101,14 @@
       <c r="C164" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E164" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:5">
       <c r="A165" t="n">
         <v>113</v>
       </c>
@@ -3121,14 +3118,14 @@
       <c r="C165" t="s">
         <v>23</v>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E165" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:4">
       <c r="A166" t="n">
         <v>115</v>
       </c>
@@ -3138,11 +3135,11 @@
       <c r="C166" t="s">
         <v>23</v>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:4">
       <c r="A167" t="n">
         <v>121</v>
       </c>
@@ -3152,11 +3149,11 @@
       <c r="C167" t="s">
         <v>23</v>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:4">
       <c r="A168" t="n">
         <v>134</v>
       </c>
@@ -3166,11 +3163,11 @@
       <c r="C168" t="s">
         <v>23</v>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:4">
       <c r="A169" t="n">
         <v>179</v>
       </c>
@@ -3180,11 +3177,11 @@
       <c r="C169" t="s">
         <v>23</v>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="1" t="n">
         <v>43908</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:6">
       <c r="A170" t="n">
         <v>209</v>
       </c>
@@ -3194,7 +3191,7 @@
       <c r="C170" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E170" t="s">
@@ -3204,7 +3201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:4">
       <c r="A171" t="n">
         <v>96</v>
       </c>
@@ -3214,11 +3211,11 @@
       <c r="C171" t="s">
         <v>15</v>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="1" t="n">
         <v>43909</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:5">
       <c r="A172" t="n">
         <v>110</v>
       </c>
@@ -3228,14 +3225,14 @@
       <c r="C172" t="s">
         <v>23</v>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E172" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:5">
       <c r="A173" t="n">
         <v>111</v>
       </c>
@@ -3245,14 +3242,14 @@
       <c r="C173" t="s">
         <v>23</v>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E173" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:5">
       <c r="A174" t="n">
         <v>116</v>
       </c>
@@ -3262,14 +3259,14 @@
       <c r="C174" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E174" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:5">
       <c r="A175" t="n">
         <v>117</v>
       </c>
@@ -3279,14 +3276,14 @@
       <c r="C175" t="s">
         <v>23</v>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E175" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:4">
       <c r="A176" t="n">
         <v>118</v>
       </c>
@@ -3296,11 +3293,11 @@
       <c r="C176" t="s">
         <v>23</v>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" s="1" t="n">
         <v>43909</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:4">
       <c r="A177" t="n">
         <v>141</v>
       </c>
@@ -3310,11 +3307,11 @@
       <c r="C177" t="s">
         <v>6</v>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" s="1" t="n">
         <v>43909</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:4">
       <c r="A178" t="n">
         <v>122</v>
       </c>
@@ -3324,11 +3321,11 @@
       <c r="C178" t="s">
         <v>51</v>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:4">
       <c r="A179" t="n">
         <v>128</v>
       </c>
@@ -3338,11 +3335,11 @@
       <c r="C179" t="s">
         <v>23</v>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:5">
       <c r="A180" t="n">
         <v>129</v>
       </c>
@@ -3352,14 +3349,14 @@
       <c r="C180" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E180" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:4">
       <c r="A181" t="n">
         <v>146</v>
       </c>
@@ -3369,11 +3366,11 @@
       <c r="C181" t="s">
         <v>23</v>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:4">
       <c r="A182" t="n">
         <v>166</v>
       </c>
@@ -3383,11 +3380,11 @@
       <c r="C182" t="s">
         <v>23</v>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:5">
       <c r="A183" t="n">
         <v>170</v>
       </c>
@@ -3397,14 +3394,14 @@
       <c r="C183" t="s">
         <v>6</v>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E183" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:5">
       <c r="A184" t="n">
         <v>180</v>
       </c>
@@ -3414,14 +3411,14 @@
       <c r="C184" t="s">
         <v>23</v>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E184" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:5">
       <c r="A185" t="n">
         <v>181</v>
       </c>
@@ -3431,14 +3428,14 @@
       <c r="C185" t="s">
         <v>23</v>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E185" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:5">
       <c r="A186" t="n">
         <v>182</v>
       </c>
@@ -3448,14 +3445,14 @@
       <c r="C186" t="s">
         <v>23</v>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:4">
       <c r="A187" t="n">
         <v>210</v>
       </c>
@@ -3465,7 +3462,7 @@
       <c r="C187" t="s">
         <v>23</v>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
@@ -3479,7 +3476,7 @@
       <c r="C188" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E188" t="s">
@@ -3496,7 +3493,7 @@
       <c r="C189" t="s">
         <v>23</v>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E189" t="s">
@@ -3506,7 +3503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:5">
       <c r="A190" t="n">
         <v>228</v>
       </c>
@@ -3516,14 +3513,14 @@
       <c r="C190" t="s">
         <v>23</v>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:4">
       <c r="A191" t="n">
         <v>229</v>
       </c>
@@ -3533,7 +3530,7 @@
       <c r="C191" t="s">
         <v>23</v>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
@@ -3547,11 +3544,11 @@
       <c r="C192" t="s">
         <v>23</v>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:4">
       <c r="A193" t="n">
         <v>238</v>
       </c>
@@ -3561,11 +3558,11 @@
       <c r="C193" t="s">
         <v>23</v>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:4">
       <c r="A194" t="n">
         <v>240</v>
       </c>
@@ -3575,11 +3572,11 @@
       <c r="C194" t="s">
         <v>23</v>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" s="1" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:4">
       <c r="A195" t="n">
         <v>251</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:4">
       <c r="A196" t="n">
         <v>257</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:4">
       <c r="A197" t="n">
         <v>258</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:4">
       <c r="A198" t="n">
         <v>135</v>
       </c>
@@ -3631,11 +3628,11 @@
       <c r="C198" t="s">
         <v>23</v>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" s="1" t="n">
         <v>43911</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:5">
       <c r="A199" t="n">
         <v>138</v>
       </c>
@@ -3645,14 +3642,14 @@
       <c r="C199" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E199" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:5">
       <c r="A200" t="n">
         <v>139</v>
       </c>
@@ -3662,7 +3659,7 @@
       <c r="C200" t="s">
         <v>23</v>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E200" t="s">
@@ -3679,7 +3676,7 @@
       <c r="C201" t="s">
         <v>23</v>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E201" t="s">
@@ -3696,14 +3693,14 @@
       <c r="C202" t="s">
         <v>23</v>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E202" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:4">
       <c r="A203" t="n">
         <v>147</v>
       </c>
@@ -3713,11 +3710,11 @@
       <c r="C203" t="s">
         <v>23</v>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" s="1" t="n">
         <v>43911</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:4">
       <c r="A204" t="n">
         <v>153</v>
       </c>
@@ -3727,11 +3724,11 @@
       <c r="C204" t="s">
         <v>23</v>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" s="1" t="n">
         <v>43911</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:4">
       <c r="A205" t="n">
         <v>241</v>
       </c>
@@ -3741,11 +3738,11 @@
       <c r="C205" t="s">
         <v>23</v>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" s="1" t="n">
         <v>43911</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:4">
       <c r="A206" t="n">
         <v>130</v>
       </c>
@@ -3755,11 +3752,11 @@
       <c r="C206" t="s">
         <v>23</v>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:4">
       <c r="A207" t="n">
         <v>131</v>
       </c>
@@ -3769,7 +3766,7 @@
       <c r="C207" t="s">
         <v>23</v>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
@@ -3783,7 +3780,7 @@
       <c r="C208" t="s">
         <v>23</v>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E208" t="s">
@@ -3793,7 +3790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:4">
       <c r="A209" t="n">
         <v>133</v>
       </c>
@@ -3803,7 +3800,7 @@
       <c r="C209" t="s">
         <v>56</v>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
@@ -3817,11 +3814,11 @@
       <c r="C210" t="s">
         <v>23</v>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:4">
       <c r="A211" t="n">
         <v>145</v>
       </c>
@@ -3831,11 +3828,11 @@
       <c r="C211" t="s">
         <v>23</v>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:4">
       <c r="A212" t="n">
         <v>154</v>
       </c>
@@ -3845,11 +3842,11 @@
       <c r="C212" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:4">
       <c r="A213" t="n">
         <v>155</v>
       </c>
@@ -3859,7 +3856,7 @@
       <c r="C213" t="s">
         <v>23</v>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
@@ -3873,11 +3870,11 @@
       <c r="C214" t="s">
         <v>23</v>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:4">
       <c r="A215" t="n">
         <v>160</v>
       </c>
@@ -3887,11 +3884,11 @@
       <c r="C215" t="s">
         <v>23</v>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:4">
       <c r="A216" t="n">
         <v>172</v>
       </c>
@@ -3901,7 +3898,7 @@
       <c r="C216" t="s">
         <v>56</v>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
@@ -3915,14 +3912,14 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E217" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:4">
       <c r="A218" t="n">
         <v>249</v>
       </c>
@@ -3932,7 +3929,7 @@
       <c r="C218" t="s">
         <v>23</v>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" s="1" t="n">
         <v>43912</v>
       </c>
     </row>
@@ -3946,14 +3943,14 @@
       <c r="C219" t="s">
         <v>23</v>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="E219" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:4">
       <c r="A220" t="n">
         <v>164</v>
       </c>
@@ -3963,7 +3960,7 @@
       <c r="C220" t="s">
         <v>23</v>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" s="1" t="n">
         <v>43913</v>
       </c>
     </row>
@@ -3977,14 +3974,14 @@
       <c r="C221" t="s">
         <v>23</v>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="E221" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:4">
       <c r="A222" t="n">
         <v>216</v>
       </c>
@@ -3994,7 +3991,7 @@
       <c r="C222" t="s">
         <v>23</v>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" s="1" t="n">
         <v>43913</v>
       </c>
     </row>
@@ -4008,7 +4005,7 @@
       <c r="C223" t="s">
         <v>23</v>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" s="1" t="n">
         <v>43913</v>
       </c>
     </row>
@@ -4022,7 +4019,7 @@
       <c r="C224" t="s">
         <v>23</v>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="E224" t="s">
@@ -4039,14 +4036,14 @@
       <c r="C225" t="s">
         <v>23</v>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="E225" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:4">
       <c r="A226" t="n">
         <v>217</v>
       </c>
@@ -4056,11 +4053,11 @@
       <c r="C226" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:4">
       <c r="A227" t="n">
         <v>218</v>
       </c>
@@ -4070,11 +4067,11 @@
       <c r="C227" t="s">
         <v>23</v>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:4">
       <c r="A228" t="n">
         <v>225</v>
       </c>
@@ -4084,11 +4081,11 @@
       <c r="C228" t="s">
         <v>23</v>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:4">
       <c r="A229" t="n">
         <v>242</v>
       </c>
@@ -4098,11 +4095,11 @@
       <c r="C229" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:4">
       <c r="A230" t="n">
         <v>244</v>
       </c>
@@ -4112,11 +4109,11 @@
       <c r="C230" t="s">
         <v>23</v>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:4">
       <c r="A231" t="n">
         <v>245</v>
       </c>
@@ -4126,7 +4123,7 @@
       <c r="C231" t="s">
         <v>23</v>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
@@ -4140,7 +4137,7 @@
       <c r="C232" t="s">
         <v>23</v>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" s="1" t="n">
         <v>43915</v>
       </c>
     </row>
@@ -4154,11 +4151,11 @@
       <c r="C233" t="s">
         <v>23</v>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" s="1" t="n">
         <v>43917</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:4">
       <c r="A234" t="n">
         <v>226</v>
       </c>
@@ -4168,11 +4165,11 @@
       <c r="C234" t="s">
         <v>23</v>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" s="1" t="n">
         <v>43917</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:5">
       <c r="A235" t="n">
         <v>231</v>
       </c>
@@ -4182,14 +4179,14 @@
       <c r="C235" t="s">
         <v>54</v>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="E235" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:4">
       <c r="A236" t="n">
         <v>232</v>
       </c>
@@ -4199,7 +4196,7 @@
       <c r="C236" t="s">
         <v>23</v>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" s="1" t="n">
         <v>43917</v>
       </c>
     </row>
@@ -4213,11 +4210,11 @@
       <c r="C237" t="s">
         <v>23</v>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" s="1" t="n">
         <v>43917</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:4">
       <c r="A238" t="n">
         <v>255</v>
       </c>
@@ -4231,7 +4228,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:4">
       <c r="A239" t="n">
         <v>256</v>
       </c>
@@ -4245,7 +4242,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:4">
       <c r="A240" t="n">
         <v>250</v>
       </c>
@@ -4269,11 +4266,11 @@
       <c r="C241" t="s">
         <v>15</v>
       </c>
-      <c r="D241" s="2" t="n">
-        <v>44047</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="D241" s="1" t="n">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="n">
         <v>253</v>
       </c>
@@ -4283,8 +4280,8 @@
       <c r="C242" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="2" t="n">
-        <v>44078</v>
+      <c r="D242" s="1" t="n">
+        <v>43930</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4297,15 +4294,15 @@
       <c r="C243" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>44078</v>
+      <c r="D243" s="1" t="n">
+        <v>43930</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1586665606" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1586694348" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4314,16 +4311,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1586665606" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1586665606" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586665606" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586665606" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1586694348" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1586694348" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586694348" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586694348" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586665606" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586694348" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Risk Assessment/data/VNM_1_statistic.xlsx
+++ b/Risk Assessment/data/VNM_1_statistic.xlsx
@@ -13,11 +13,11 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1586694348" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1586694348" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1586694348" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1586694348"/>
-      <pm:sortOptions xmlns:pm="smNativeData" id="1586694348">
+      <pm:revision xmlns:pm="smNativeData" day="1586719525" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1586719525" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1586719525"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1586719525"/>
+      <pm:sortOptions xmlns:pm="smNativeData" id="1586719525">
         <pm:column colId="3"/>
         <pm:column colId="-1"/>
         <pm:column colId="-1"/>
@@ -89,187 +89,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="58">
-  <si>
-    <t>Ma so BN</t>
-  </si>
-  <si>
-    <t>Tinh/TP</t>
-  </si>
-  <si>
-    <t>Ngay nhiem benh</t>
-  </si>
-  <si>
-    <t>Quan</t>
-  </si>
-  <si>
-    <t>Phuong</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Ha Noi</t>
-  </si>
-  <si>
-    <t>Ba Dinh</t>
-  </si>
-  <si>
-    <t>Truc Bach</t>
-  </si>
-  <si>
-    <t>Quang Ninh</t>
-  </si>
-  <si>
-    <t>Lao Cai</t>
-  </si>
-  <si>
-    <t>Da Nang</t>
-  </si>
-  <si>
-    <t>Hue</t>
-  </si>
-  <si>
-    <t>Quang Nam</t>
-  </si>
-  <si>
-    <t>Binh Thuan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="75">
+  <si>
+    <t xml:space="preserve"> Ma so BN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tinh/TP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ngay nhiem benh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phuong </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viet Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Noi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba Dinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Truc Bach </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quang Ninh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lao Cai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Da Nang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thua Thien Hue </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quang Nam </t>
   </si>
   <si>
     <t>Ho Chi Minh</t>
   </si>
   <si>
-    <t>Long Bien</t>
-  </si>
-  <si>
-    <t>Bo De</t>
-  </si>
-  <si>
-    <t>Thai Binh</t>
-  </si>
-  <si>
-    <t>Cau Giay</t>
-  </si>
-  <si>
-    <t>Ninh Thuan</t>
-  </si>
-  <si>
-    <t>Thanh Xuan</t>
-  </si>
-  <si>
-    <t>Dong Da</t>
+    <t xml:space="preserve"> Binh Thuan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ho Chi Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long Bien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bo De </t>
+  </si>
+  <si>
+    <t>Tan Binh</t>
+  </si>
+  <si>
+    <t>District 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thai Binh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cau Giay </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ninh Thuan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh Xuan </t>
+  </si>
+  <si>
+    <t>Go Vap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dong Da </t>
+  </si>
+  <si>
+    <t>District 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cach ly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khuong Trung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nui Truc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hai Duong </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thai Nguyen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ninh Binh </t>
+  </si>
+  <si>
+    <t>Binh Chanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vinh Phuc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bac Tu Liem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuan Dinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Dong </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phuc La </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanh Oai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hai Ba Trung </t>
+  </si>
+  <si>
+    <t>District 1</t>
+  </si>
+  <si>
+    <t>District 4</t>
+  </si>
+  <si>
+    <t>District 7</t>
+  </si>
+  <si>
+    <t>Tan Phu</t>
+  </si>
+  <si>
+    <t>District 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dien Bien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trung Hoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bac Lieu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kon Tum </t>
+  </si>
+  <si>
+    <t>District 5</t>
+  </si>
+  <si>
+    <t>Binh Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoang Mai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoan Kiem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hung Yen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duc Giang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lam Dong </t>
   </si>
   <si>
     <t>cach ly</t>
   </si>
   <si>
-    <t>Khuong Trung</t>
-  </si>
-  <si>
-    <t>Nui Truc</t>
-  </si>
-  <si>
-    <t>Hai Duong</t>
-  </si>
-  <si>
-    <t>Thai Nguyen</t>
-  </si>
-  <si>
-    <t>Ninh Binh</t>
-  </si>
-  <si>
-    <t>Vinh Phuc</t>
-  </si>
-  <si>
-    <t>Bac Tu Liem</t>
-  </si>
-  <si>
-    <t>Xuan Dinh</t>
-  </si>
-  <si>
-    <t>Ha Dong</t>
-  </si>
-  <si>
-    <t>Phuc La</t>
-  </si>
-  <si>
-    <t>Thanh Oai</t>
-  </si>
-  <si>
-    <t>Hai Ba Trung</t>
-  </si>
-  <si>
-    <t>Dien Bien</t>
-  </si>
-  <si>
-    <t>Trung Hoa</t>
-  </si>
-  <si>
-    <t>Bac Lieu</t>
-  </si>
-  <si>
-    <t>Kon Tum</t>
-  </si>
-  <si>
-    <t>Hoang Mai</t>
-  </si>
-  <si>
-    <t>Hoan Kiem</t>
-  </si>
-  <si>
-    <t>Hung Yen</t>
-  </si>
-  <si>
-    <t>Duc Giang</t>
-  </si>
-  <si>
-    <t>Nhan Chinh</t>
-  </si>
-  <si>
-    <t>Da Lat</t>
-  </si>
-  <si>
-    <t>Ben Tre</t>
-  </si>
-  <si>
-    <t>Thuong Thanh</t>
-  </si>
-  <si>
-    <t>Bac Giang</t>
-  </si>
-  <si>
-    <t>Dong Anh</t>
-  </si>
-  <si>
-    <t>Hoai Duc</t>
-  </si>
-  <si>
-    <t>Ha Tinh</t>
-  </si>
-  <si>
-    <t>My Duc</t>
-  </si>
-  <si>
-    <t>Phuc Loi</t>
-  </si>
-  <si>
-    <t>Ha Nam</t>
-  </si>
-  <si>
-    <t>Tay Ho</t>
-  </si>
-  <si>
-    <t>Lai Chau</t>
-  </si>
-  <si>
-    <t>Ha Giang</t>
+    <t xml:space="preserve"> Ben Tre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuong Thanh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bac Giang </t>
+  </si>
+  <si>
+    <t>Phu Nhuan</t>
+  </si>
+  <si>
+    <t>District 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dong Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoai Duc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Tinh </t>
+  </si>
+  <si>
+    <t>Cach ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My Duc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phuc Loi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tay Ho </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lai Chau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha Giang </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -278,7 +329,8 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD;@"/>
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -288,7 +340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586694348" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1586719525" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -310,7 +362,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586694348" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1586719525" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -332,7 +384,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586694348"/>
+          <pm:border xmlns:pm="smNativeData" id="1586719525"/>
         </ext>
       </extLst>
     </border>
@@ -351,7 +403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586694348"/>
+          <pm:border xmlns:pm="smNativeData" id="1586719525"/>
         </ext>
       </extLst>
     </border>
@@ -361,7 +413,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -369,7 +421,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1586694348" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1586719525" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -633,24 +685,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
-    <col min="1" max="3" width="10.000000" style="0"/>
-    <col min="4" max="4" width="10.018018" customWidth="1" style="1"/>
-    <col min="5" max="5" width="11.351351" customWidth="1" style="0"/>
-    <col min="6" max="6" width="12.513514" customWidth="1" style="0"/>
+    <col min="1" max="2" width="10.000000" style="0"/>
+    <col min="3" max="3" width="14.720721" customWidth="1" style="0"/>
+    <col min="4" max="4" width="10.000000" style="1"/>
+    <col min="5" max="6" width="10.000000" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -744,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="n">
         <v>22</v>
       </c>
@@ -757,8 +812,14 @@
       <c r="D6" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="n">
         <v>23</v>
       </c>
@@ -771,8 +832,14 @@
       <c r="D7" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="n">
         <v>24</v>
       </c>
@@ -785,8 +852,14 @@
       <c r="D8" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="n">
         <v>25</v>
       </c>
@@ -799,8 +872,14 @@
       <c r="D9" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="n">
         <v>26</v>
       </c>
@@ -808,13 +887,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="n">
         <v>27</v>
       </c>
@@ -822,13 +907,19 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="n">
         <v>28</v>
       </c>
@@ -836,13 +927,19 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="n">
         <v>29</v>
       </c>
@@ -850,13 +947,19 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="n">
         <v>30</v>
       </c>
@@ -864,13 +967,19 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="n">
         <v>31</v>
       </c>
@@ -878,13 +987,19 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="n">
         <v>33</v>
       </c>
@@ -892,13 +1007,19 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="n">
         <v>34</v>
       </c>
@@ -906,13 +1027,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="n">
         <v>36</v>
       </c>
@@ -920,13 +1047,19 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="n">
         <v>37</v>
       </c>
@@ -934,13 +1067,19 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="n">
         <v>38</v>
       </c>
@@ -948,13 +1087,19 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="n">
         <v>40</v>
       </c>
@@ -962,13 +1107,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="n">
         <v>41</v>
       </c>
@@ -976,13 +1127,19 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="n">
         <v>42</v>
       </c>
@@ -990,13 +1147,19 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="n">
         <v>43</v>
       </c>
@@ -1004,13 +1167,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="n">
         <v>44</v>
       </c>
@@ -1018,13 +1187,19 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="n">
         <v>47</v>
       </c>
@@ -1044,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:11">
       <c r="A27" t="n">
         <v>48</v>
       </c>
@@ -1052,13 +1227,19 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="n">
         <v>49</v>
       </c>
@@ -1071,8 +1252,14 @@
       <c r="D28" s="1" t="n">
         <v>43892</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="n">
         <v>59</v>
       </c>
@@ -1086,13 +1273,13 @@
         <v>43892</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="n">
         <v>45</v>
       </c>
@@ -1100,13 +1287,19 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>43893</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="n">
         <v>100</v>
       </c>
@@ -1114,13 +1307,19 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>43893</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="n">
         <v>18</v>
       </c>
@@ -1128,13 +1327,19 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>43894</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="n">
         <v>35</v>
       </c>
@@ -1142,13 +1347,19 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>43894</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="n">
         <v>39</v>
       </c>
@@ -1162,10 +1373,13 @@
         <v>43894</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="n">
         <v>61</v>
       </c>
@@ -1173,13 +1387,19 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>43894</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="n">
         <v>67</v>
       </c>
@@ -1187,13 +1407,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>43894</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="n">
         <v>86</v>
       </c>
@@ -1206,8 +1432,14 @@
       <c r="D37" s="1" t="n">
         <v>43896</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="n">
         <v>107</v>
       </c>
@@ -1221,10 +1453,13 @@
         <v>43896</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="n">
         <v>65</v>
       </c>
@@ -1232,13 +1467,19 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>43897</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="n">
         <v>167</v>
       </c>
@@ -1252,10 +1493,13 @@
         <v>43897</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="n">
         <v>54</v>
       </c>
@@ -1263,13 +1507,19 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>43898</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="n">
         <v>91</v>
       </c>
@@ -1277,13 +1527,19 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>43898</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="n">
         <v>32</v>
       </c>
@@ -1291,13 +1547,19 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="n">
         <v>46</v>
       </c>
@@ -1311,13 +1573,13 @@
         <v>43899</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="n">
         <v>50</v>
       </c>
@@ -1334,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="n">
         <v>52</v>
       </c>
@@ -1350,8 +1612,14 @@
       <c r="D46" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="n">
         <v>57</v>
       </c>
@@ -1359,13 +1627,19 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="n">
         <v>60</v>
       </c>
@@ -1378,8 +1652,14 @@
       <c r="D48" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="n">
         <v>72</v>
       </c>
@@ -1392,8 +1672,14 @@
       <c r="D49" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="n">
         <v>73</v>
       </c>
@@ -1401,13 +1687,19 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="n">
         <v>87</v>
       </c>
@@ -1420,8 +1712,14 @@
       <c r="D51" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="n">
         <v>168</v>
       </c>
@@ -1434,8 +1732,14 @@
       <c r="D52" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="n">
         <v>169</v>
       </c>
@@ -1448,8 +1752,14 @@
       <c r="D53" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="n">
         <v>174</v>
       </c>
@@ -1462,8 +1772,14 @@
       <c r="D54" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="n">
         <v>175</v>
       </c>
@@ -1476,8 +1792,14 @@
       <c r="D55" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="n">
         <v>176</v>
       </c>
@@ -1490,8 +1812,14 @@
       <c r="D56" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="n">
         <v>177</v>
       </c>
@@ -1504,8 +1832,14 @@
       <c r="D57" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="n">
         <v>178</v>
       </c>
@@ -1513,13 +1847,19 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="n">
         <v>184</v>
       </c>
@@ -1533,10 +1873,13 @@
         <v>43899</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="n">
         <v>188</v>
       </c>
@@ -1549,8 +1892,14 @@
       <c r="D60" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="n">
         <v>189</v>
       </c>
@@ -1564,10 +1913,13 @@
         <v>43899</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="n">
         <v>190</v>
       </c>
@@ -1580,8 +1932,14 @@
       <c r="D62" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="n">
         <v>191</v>
       </c>
@@ -1594,8 +1952,14 @@
       <c r="D63" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="n">
         <v>192</v>
       </c>
@@ -1608,8 +1972,14 @@
       <c r="D64" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="n">
         <v>193</v>
       </c>
@@ -1622,8 +1992,14 @@
       <c r="D65" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="n">
         <v>194</v>
       </c>
@@ -1636,8 +2012,14 @@
       <c r="D66" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="n">
         <v>195</v>
       </c>
@@ -1650,8 +2032,14 @@
       <c r="D67" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="n">
         <v>196</v>
       </c>
@@ -1664,8 +2052,14 @@
       <c r="D68" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="n">
         <v>198</v>
       </c>
@@ -1678,8 +2072,14 @@
       <c r="D69" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="n">
         <v>199</v>
       </c>
@@ -1692,8 +2092,14 @@
       <c r="D70" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="n">
         <v>200</v>
       </c>
@@ -1706,8 +2112,14 @@
       <c r="D71" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="n">
         <v>201</v>
       </c>
@@ -1720,8 +2132,14 @@
       <c r="D72" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="n">
         <v>202</v>
       </c>
@@ -1734,8 +2152,14 @@
       <c r="D73" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="n">
         <v>205</v>
       </c>
@@ -1748,8 +2172,14 @@
       <c r="D74" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="n">
         <v>208</v>
       </c>
@@ -1762,8 +2192,14 @@
       <c r="D75" s="1" t="n">
         <v>43899</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="n">
         <v>214</v>
       </c>
@@ -1777,10 +2213,13 @@
         <v>43899</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="n">
         <v>215</v>
       </c>
@@ -1794,10 +2233,13 @@
         <v>43899</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="n">
         <v>53</v>
       </c>
@@ -1805,13 +2247,19 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>43900</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="n">
         <v>56</v>
       </c>
@@ -1824,8 +2272,14 @@
       <c r="D79" s="1" t="n">
         <v>43900</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="n">
         <v>76</v>
       </c>
@@ -1833,13 +2287,19 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>43900</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="n">
         <v>142</v>
       </c>
@@ -1847,13 +2307,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>43900</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="n">
         <v>186</v>
       </c>
@@ -1861,13 +2327,19 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>43900</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="n">
         <v>223</v>
       </c>
@@ -1880,8 +2352,14 @@
       <c r="D83" s="1" t="n">
         <v>43901</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="n">
         <v>239</v>
       </c>
@@ -1889,13 +2367,19 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>43901</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="n">
         <v>51</v>
       </c>
@@ -1909,13 +2393,13 @@
         <v>43902</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="n">
         <v>88</v>
       </c>
@@ -1929,13 +2413,13 @@
         <v>43902</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="n">
         <v>148</v>
       </c>
@@ -1948,8 +2432,14 @@
       <c r="D87" s="1" t="n">
         <v>43902</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="n">
         <v>183</v>
       </c>
@@ -1962,8 +2452,14 @@
       <c r="D88" s="1" t="n">
         <v>43902</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="n">
         <v>197</v>
       </c>
@@ -1976,8 +2472,14 @@
       <c r="D89" s="1" t="n">
         <v>43902</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="n">
         <v>213</v>
       </c>
@@ -1991,10 +2493,13 @@
         <v>43902</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="n">
         <v>243</v>
       </c>
@@ -2007,8 +2512,14 @@
       <c r="D91" s="1" t="n">
         <v>43902</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="n">
         <v>69</v>
       </c>
@@ -2022,10 +2533,13 @@
         <v>43903</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="n">
         <v>150</v>
       </c>
@@ -2033,13 +2547,19 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>43903</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="n">
         <v>187</v>
       </c>
@@ -2052,8 +2572,14 @@
       <c r="D94" s="1" t="n">
         <v>43903</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="n">
         <v>55</v>
       </c>
@@ -2066,8 +2592,14 @@
       <c r="D95" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="n">
         <v>68</v>
       </c>
@@ -2075,13 +2607,19 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="n">
         <v>97</v>
       </c>
@@ -2089,13 +2627,19 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="n">
         <v>98</v>
       </c>
@@ -2103,13 +2647,19 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="n">
         <v>120</v>
       </c>
@@ -2117,13 +2667,19 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="n">
         <v>124</v>
       </c>
@@ -2131,13 +2687,19 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="n">
         <v>125</v>
       </c>
@@ -2145,13 +2707,19 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="n">
         <v>126</v>
       </c>
@@ -2159,13 +2727,19 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="n">
         <v>127</v>
       </c>
@@ -2173,13 +2747,19 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="n">
         <v>157</v>
       </c>
@@ -2187,13 +2767,19 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="n">
         <v>158</v>
       </c>
@@ -2201,13 +2787,19 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="n">
         <v>159</v>
       </c>
@@ -2215,13 +2807,19 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="n">
         <v>171</v>
       </c>
@@ -2229,13 +2827,19 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="n">
         <v>235</v>
       </c>
@@ -2243,13 +2847,19 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="n">
         <v>236</v>
       </c>
@@ -2257,13 +2867,19 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>43904</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="n">
         <v>58</v>
       </c>
@@ -2280,10 +2896,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="n">
         <v>63</v>
       </c>
@@ -2297,13 +2913,13 @@
         <v>43905</v>
       </c>
       <c r="E111" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="n">
         <v>75</v>
       </c>
@@ -2311,13 +2927,19 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="n">
         <v>79</v>
       </c>
@@ -2325,13 +2947,19 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="n">
         <v>80</v>
       </c>
@@ -2339,13 +2967,19 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="n">
         <v>81</v>
       </c>
@@ -2353,13 +2987,19 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="n">
         <v>82</v>
       </c>
@@ -2367,13 +3007,19 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="n">
         <v>83</v>
       </c>
@@ -2381,13 +3027,19 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" t="s">
+        <v>53</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="n">
         <v>109</v>
       </c>
@@ -2395,16 +3047,19 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="n">
         <v>114</v>
       </c>
@@ -2412,16 +3067,19 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="n">
         <v>119</v>
       </c>
@@ -2429,13 +3087,19 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="n">
         <v>137</v>
       </c>
@@ -2443,13 +3107,19 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="n">
         <v>151</v>
       </c>
@@ -2457,13 +3127,19 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="n">
         <v>152</v>
       </c>
@@ -2471,13 +3147,19 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="n">
         <v>185</v>
       </c>
@@ -2490,8 +3172,14 @@
       <c r="D124" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" t="n">
         <v>204</v>
       </c>
@@ -2499,13 +3187,19 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="n">
         <v>206</v>
       </c>
@@ -2513,13 +3207,19 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" t="n">
         <v>207</v>
       </c>
@@ -2527,13 +3227,19 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="n">
         <v>224</v>
       </c>
@@ -2541,13 +3247,19 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="n">
         <v>247</v>
       </c>
@@ -2555,13 +3267,19 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>43905</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="n">
         <v>62</v>
       </c>
@@ -2575,10 +3293,13 @@
         <v>43906</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="n">
         <v>64</v>
       </c>
@@ -2586,13 +3307,19 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="n">
         <v>66</v>
       </c>
@@ -2600,13 +3327,19 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="n">
         <v>70</v>
       </c>
@@ -2620,10 +3353,13 @@
         <v>43906</v>
       </c>
       <c r="E133" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="n">
         <v>71</v>
       </c>
@@ -2637,10 +3373,13 @@
         <v>43906</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="n">
         <v>74</v>
       </c>
@@ -2648,13 +3387,19 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="n">
         <v>90</v>
       </c>
@@ -2662,13 +3407,19 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="n">
         <v>136</v>
       </c>
@@ -2681,8 +3432,14 @@
       <c r="D137" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="n">
         <v>219</v>
       </c>
@@ -2690,13 +3447,19 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>43906</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="n">
         <v>227</v>
       </c>
@@ -2710,13 +3473,13 @@
         <v>43906</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="n">
         <v>77</v>
       </c>
@@ -2730,10 +3493,13 @@
         <v>43907</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="n">
         <v>78</v>
       </c>
@@ -2747,10 +3513,13 @@
         <v>43907</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="n">
         <v>89</v>
       </c>
@@ -2758,13 +3527,19 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="n">
         <v>92</v>
       </c>
@@ -2772,13 +3547,19 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="n">
         <v>123</v>
       </c>
@@ -2786,13 +3567,19 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="n">
         <v>161</v>
       </c>
@@ -2806,13 +3593,13 @@
         <v>43907</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="n">
         <v>162</v>
       </c>
@@ -2820,19 +3607,19 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="n">
         <v>163</v>
       </c>
@@ -2846,13 +3633,13 @@
         <v>43907</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="n">
         <v>203</v>
       </c>
@@ -2860,13 +3647,19 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="n">
         <v>220</v>
       </c>
@@ -2874,13 +3667,19 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="n">
         <v>234</v>
       </c>
@@ -2888,13 +3687,19 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>43907</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="n">
         <v>84</v>
       </c>
@@ -2908,10 +3713,13 @@
         <v>43908</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="n">
         <v>85</v>
       </c>
@@ -2927,8 +3735,11 @@
       <c r="E152" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="n">
         <v>93</v>
       </c>
@@ -2942,10 +3753,13 @@
         <v>43908</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="n">
         <v>94</v>
       </c>
@@ -2953,13 +3767,19 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="n">
         <v>95</v>
       </c>
@@ -2967,13 +3787,19 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="n">
         <v>99</v>
       </c>
@@ -2981,13 +3807,19 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>53</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="n">
         <v>101</v>
       </c>
@@ -2995,13 +3827,19 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="n">
         <v>102</v>
       </c>
@@ -3009,16 +3847,19 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="n">
         <v>103</v>
       </c>
@@ -3026,13 +3867,19 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>63</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="n">
         <v>104</v>
       </c>
@@ -3040,13 +3887,19 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>64</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" t="n">
         <v>105</v>
       </c>
@@ -3054,13 +3907,19 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" t="n">
         <v>106</v>
       </c>
@@ -3068,13 +3927,19 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" t="n">
         <v>108</v>
       </c>
@@ -3082,16 +3947,19 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" t="n">
         <v>112</v>
       </c>
@@ -3099,16 +3967,19 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="n">
         <v>113</v>
       </c>
@@ -3116,16 +3987,19 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="n">
         <v>115</v>
       </c>
@@ -3133,13 +4007,19 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="n">
         <v>121</v>
       </c>
@@ -3147,13 +4027,19 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="n">
         <v>134</v>
       </c>
@@ -3161,13 +4047,19 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>43908</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="n">
         <v>179</v>
       </c>
@@ -3175,10 +4067,16 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>43908</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3195,13 +4093,13 @@
         <v>43908</v>
       </c>
       <c r="E170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="n">
         <v>96</v>
       </c>
@@ -3209,13 +4107,19 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>43909</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="E171" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="n">
         <v>110</v>
       </c>
@@ -3223,16 +4127,19 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="n">
         <v>111</v>
       </c>
@@ -3240,16 +4147,19 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="n">
         <v>116</v>
       </c>
@@ -3263,10 +4173,13 @@
         <v>43909</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="n">
         <v>117</v>
       </c>
@@ -3274,16 +4187,19 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="n">
         <v>118</v>
       </c>
@@ -3291,13 +4207,19 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>43909</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="n">
         <v>141</v>
       </c>
@@ -3310,8 +4232,14 @@
       <c r="D177" s="1" t="n">
         <v>43909</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="n">
         <v>122</v>
       </c>
@@ -3319,13 +4247,19 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="n">
         <v>128</v>
       </c>
@@ -3333,13 +4267,19 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="n">
         <v>129</v>
       </c>
@@ -3347,16 +4287,19 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="n">
         <v>146</v>
       </c>
@@ -3364,13 +4307,19 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="n">
         <v>166</v>
       </c>
@@ -3378,13 +4327,19 @@
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="n">
         <v>170</v>
       </c>
@@ -3398,10 +4353,13 @@
         <v>43910</v>
       </c>
       <c r="E183" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="n">
         <v>180</v>
       </c>
@@ -3409,16 +4367,19 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E184" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="n">
         <v>181</v>
       </c>
@@ -3426,16 +4387,19 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E185" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="n">
         <v>182</v>
       </c>
@@ -3443,16 +4407,19 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E186" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="n">
         <v>210</v>
       </c>
@@ -3460,13 +4427,19 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" t="n">
         <v>211</v>
       </c>
@@ -3474,16 +4447,19 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" t="n">
         <v>222</v>
       </c>
@@ -3491,19 +4467,19 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E189" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" t="n">
         <v>228</v>
       </c>
@@ -3511,16 +4487,19 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" t="n">
         <v>229</v>
       </c>
@@ -3528,13 +4507,19 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" t="n">
         <v>230</v>
       </c>
@@ -3542,13 +4527,19 @@
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="n">
         <v>238</v>
       </c>
@@ -3556,13 +4547,19 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="n">
         <v>240</v>
       </c>
@@ -3570,13 +4567,19 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="n">
         <v>251</v>
       </c>
@@ -3584,13 +4587,19 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="n">
         <v>257</v>
       </c>
@@ -3603,8 +4612,14 @@
       <c r="D196" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="n">
         <v>258</v>
       </c>
@@ -3617,8 +4632,14 @@
       <c r="D197" s="1" t="n">
         <v>43910</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="n">
         <v>135</v>
       </c>
@@ -3626,13 +4647,19 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>43911</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="n">
         <v>138</v>
       </c>
@@ -3640,16 +4667,19 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D199" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="n">
         <v>139</v>
       </c>
@@ -3657,16 +4687,19 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D200" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E200" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="n">
         <v>140</v>
       </c>
@@ -3674,16 +4707,19 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="n">
         <v>143</v>
       </c>
@@ -3691,16 +4727,19 @@
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E202" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="n">
         <v>147</v>
       </c>
@@ -3708,13 +4747,19 @@
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>43911</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="n">
         <v>153</v>
       </c>
@@ -3722,13 +4767,19 @@
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>43911</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="n">
         <v>241</v>
       </c>
@@ -3736,13 +4787,19 @@
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>43911</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="n">
         <v>130</v>
       </c>
@@ -3750,13 +4807,19 @@
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D206" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" t="s">
+        <v>68</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="n">
         <v>131</v>
       </c>
@@ -3764,10 +4827,16 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>43912</v>
+      </c>
+      <c r="E207" t="s">
+        <v>68</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3778,19 +4847,19 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D208" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="n">
         <v>133</v>
       </c>
@@ -3798,13 +4867,19 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="n">
         <v>144</v>
       </c>
@@ -3812,13 +4887,19 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="s">
+        <v>68</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="n">
         <v>145</v>
       </c>
@@ -3826,13 +4907,19 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" t="s">
+        <v>68</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="n">
         <v>154</v>
       </c>
@@ -3840,13 +4927,19 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="n">
         <v>155</v>
       </c>
@@ -3854,13 +4947,19 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="n">
         <v>156</v>
       </c>
@@ -3868,13 +4967,19 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="n">
         <v>160</v>
       </c>
@@ -3882,13 +4987,19 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="n">
         <v>172</v>
       </c>
@@ -3896,13 +5007,19 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="n">
         <v>237</v>
       </c>
@@ -3916,10 +5033,13 @@
         <v>43912</v>
       </c>
       <c r="E217" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="n">
         <v>249</v>
       </c>
@@ -3927,13 +5047,19 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>43912</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="n">
         <v>149</v>
       </c>
@@ -3941,16 +5067,19 @@
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="E219" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="n">
         <v>164</v>
       </c>
@@ -3958,13 +5087,19 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>43913</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" t="n">
         <v>165</v>
       </c>
@@ -3972,16 +5107,19 @@
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" t="n">
         <v>216</v>
       </c>
@@ -3989,13 +5127,19 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D222" s="1" t="n">
         <v>43913</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="n">
         <v>248</v>
       </c>
@@ -4003,13 +5147,19 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>43913</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="n">
         <v>221</v>
       </c>
@@ -4017,16 +5167,19 @@
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D224" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="E224" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="n">
         <v>173</v>
       </c>
@@ -4034,16 +5187,19 @@
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="E225" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" t="n">
         <v>217</v>
       </c>
@@ -4051,13 +5207,19 @@
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="n">
         <v>218</v>
       </c>
@@ -4065,13 +5227,19 @@
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="n">
         <v>225</v>
       </c>
@@ -4079,13 +5247,19 @@
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="n">
         <v>242</v>
       </c>
@@ -4093,13 +5267,19 @@
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="n">
         <v>244</v>
       </c>
@@ -4107,13 +5287,19 @@
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="n">
         <v>245</v>
       </c>
@@ -4121,13 +5307,19 @@
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="n">
         <v>246</v>
       </c>
@@ -4135,13 +5327,19 @@
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>43915</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="n">
         <v>212</v>
       </c>
@@ -4149,13 +5347,19 @@
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="n">
         <v>226</v>
       </c>
@@ -4163,13 +5367,19 @@
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="n">
         <v>231</v>
       </c>
@@ -4177,16 +5387,19 @@
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="E235" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="n">
         <v>232</v>
       </c>
@@ -4194,13 +5407,19 @@
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="n">
         <v>233</v>
       </c>
@@ -4208,13 +5427,19 @@
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="n">
         <v>255</v>
       </c>
@@ -4222,13 +5447,19 @@
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="n">
         <v>256</v>
       </c>
@@ -4236,13 +5467,19 @@
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>43917</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="n">
         <v>250</v>
       </c>
@@ -4255,8 +5492,14 @@
       <c r="D240" s="1" t="n">
         <v>43923</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="n">
         <v>252</v>
       </c>
@@ -4264,13 +5507,19 @@
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>43929</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="n">
         <v>253</v>
       </c>
@@ -4283,8 +5532,14 @@
       <c r="D242" s="1" t="n">
         <v>43930</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="n">
         <v>254</v>
       </c>
@@ -4296,13 +5551,19 @@
       </c>
       <c r="D243" s="1" t="n">
         <v>43930</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1586694348" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1586719525" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4311,16 +5572,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1586694348" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1586694348" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586694348" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586694348" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1586719525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1586719525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586719525" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586719525" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586694348" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586719525" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Risk Assessment/data/VNM_1_statistic.xlsx
+++ b/Risk Assessment/data/VNM_1_statistic.xlsx
@@ -13,83 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1586719525" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1586719525" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1586719525"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1586719525"/>
-      <pm:sortOptions xmlns:pm="smNativeData" id="1586719525">
-        <pm:column colId="3"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-        <pm:column colId="-1"/>
-      </pm:sortOptions>
+      <pm:revision xmlns:pm="smNativeData" day="1586837261" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1586837261" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1586837261" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1586837261"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="76">
   <si>
     <t xml:space="preserve"> Ma so BN </t>
   </si>
@@ -136,15 +70,12 @@
     <t xml:space="preserve"> Quang Nam </t>
   </si>
   <si>
-    <t>Ho Chi Minh</t>
+    <t xml:space="preserve"> Ho Chi Minh </t>
   </si>
   <si>
     <t xml:space="preserve"> Binh Thuan </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ho Chi Minh </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Long Bien </t>
   </si>
   <si>
@@ -314,13 +245,19 @@
   </si>
   <si>
     <t xml:space="preserve"> Ha Giang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Me Linh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -329,8 +266,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD;@"/>
+    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -340,7 +276,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1586719525" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1586837261" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -362,7 +298,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1586719525" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1586837261" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -384,7 +320,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586719525"/>
+          <pm:border xmlns:pm="smNativeData" id="1586837261"/>
         </ext>
       </extLst>
     </border>
@@ -403,7 +339,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1586719525"/>
+          <pm:border xmlns:pm="smNativeData" id="1586837261"/>
         </ext>
       </extLst>
     </border>
@@ -413,7 +349,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -421,7 +357,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1586719525" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1586837261" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -685,17 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K243"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="2" width="10.000000" style="0"/>
     <col min="3" max="3" width="14.720721" customWidth="1" style="0"/>
-    <col min="4" max="4" width="10.000000" style="1"/>
+    <col min="4" max="4" width="10.018018" customWidth="1" style="1"/>
     <col min="5" max="6" width="10.000000" style="0"/>
   </cols>
   <sheetData>
@@ -1019,7 +955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:6">
       <c r="A17" t="n">
         <v>34</v>
       </c>
@@ -1039,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:6">
       <c r="A18" t="n">
         <v>36</v>
       </c>
@@ -1059,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:6">
       <c r="A19" t="n">
         <v>37</v>
       </c>
@@ -1079,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:6">
       <c r="A20" t="n">
         <v>38</v>
       </c>
@@ -1099,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:6">
       <c r="A21" t="n">
         <v>40</v>
       </c>
@@ -1119,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:6">
       <c r="A22" t="n">
         <v>41</v>
       </c>
@@ -1139,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:6">
       <c r="A23" t="n">
         <v>42</v>
       </c>
@@ -1159,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:6">
       <c r="A24" t="n">
         <v>43</v>
       </c>
@@ -1179,7 +1115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:6">
       <c r="A25" t="n">
         <v>44</v>
       </c>
@@ -1199,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:6">
       <c r="A26" t="n">
         <v>47</v>
       </c>
@@ -1219,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:6">
       <c r="A27" t="n">
         <v>48</v>
       </c>
@@ -1227,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>43892</v>
@@ -1239,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:6">
       <c r="A28" t="n">
         <v>49</v>
       </c>
@@ -1259,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:6">
       <c r="A29" t="n">
         <v>59</v>
       </c>
@@ -1273,13 +1209,13 @@
         <v>43892</v>
       </c>
       <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="n">
         <v>45</v>
       </c>
@@ -1287,19 +1223,19 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>43893</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:6">
       <c r="A31" t="n">
         <v>100</v>
       </c>
@@ -1307,19 +1243,19 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>43893</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:6">
       <c r="A32" t="n">
         <v>18</v>
       </c>
@@ -1327,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>43894</v>
@@ -1339,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:6">
       <c r="A33" t="n">
         <v>35</v>
       </c>
@@ -1359,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:6">
       <c r="A34" t="n">
         <v>39</v>
       </c>
@@ -1373,13 +1309,13 @@
         <v>43894</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:6">
       <c r="A35" t="n">
         <v>61</v>
       </c>
@@ -1387,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>43894</v>
@@ -1399,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:6">
       <c r="A36" t="n">
         <v>67</v>
       </c>
@@ -1407,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>43894</v>
@@ -1419,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:6">
       <c r="A37" t="n">
         <v>86</v>
       </c>
@@ -1439,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:6">
       <c r="A38" t="n">
         <v>107</v>
       </c>
@@ -1453,13 +1389,13 @@
         <v>43896</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:6">
       <c r="A39" t="n">
         <v>65</v>
       </c>
@@ -1467,19 +1403,19 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>43897</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:6">
       <c r="A40" t="n">
         <v>167</v>
       </c>
@@ -1493,13 +1429,13 @@
         <v>43897</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:6">
       <c r="A41" t="n">
         <v>54</v>
       </c>
@@ -1507,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>43898</v>
@@ -1519,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:6">
       <c r="A42" t="n">
         <v>91</v>
       </c>
@@ -1527,19 +1463,19 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>43898</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:6">
       <c r="A43" t="n">
         <v>32</v>
       </c>
@@ -1547,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>43899</v>
@@ -1559,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:6">
       <c r="A44" t="n">
         <v>46</v>
       </c>
@@ -1573,13 +1509,13 @@
         <v>43899</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="n">
         <v>50</v>
       </c>
@@ -1596,10 +1532,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="n">
         <v>52</v>
       </c>
@@ -1619,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:6">
       <c r="A47" t="n">
         <v>57</v>
       </c>
@@ -1639,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:6">
       <c r="A48" t="n">
         <v>60</v>
       </c>
@@ -1659,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:6">
       <c r="A49" t="n">
         <v>72</v>
       </c>
@@ -1679,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:6">
       <c r="A50" t="n">
         <v>73</v>
       </c>
@@ -1687,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>43899</v>
@@ -1699,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:6">
       <c r="A51" t="n">
         <v>87</v>
       </c>
@@ -1719,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:6">
       <c r="A52" t="n">
         <v>168</v>
       </c>
@@ -1739,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:6">
       <c r="A53" t="n">
         <v>169</v>
       </c>
@@ -1759,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:6">
       <c r="A54" t="n">
         <v>174</v>
       </c>
@@ -1779,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:6">
       <c r="A55" t="n">
         <v>175</v>
       </c>
@@ -1799,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:6">
       <c r="A56" t="n">
         <v>176</v>
       </c>
@@ -1819,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:6">
       <c r="A57" t="n">
         <v>177</v>
       </c>
@@ -1839,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:6">
       <c r="A58" t="n">
         <v>178</v>
       </c>
@@ -1847,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>43899</v>
@@ -1859,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:6">
       <c r="A59" t="n">
         <v>184</v>
       </c>
@@ -1879,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:6">
       <c r="A60" t="n">
         <v>188</v>
       </c>
@@ -1899,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:6">
       <c r="A61" t="n">
         <v>189</v>
       </c>
@@ -1913,13 +1849,13 @@
         <v>43899</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:6">
       <c r="A62" t="n">
         <v>190</v>
       </c>
@@ -1939,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:6">
       <c r="A63" t="n">
         <v>191</v>
       </c>
@@ -1959,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:6">
       <c r="A64" t="n">
         <v>192</v>
       </c>
@@ -1979,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:6">
       <c r="A65" t="n">
         <v>193</v>
       </c>
@@ -1999,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:6">
       <c r="A66" t="n">
         <v>194</v>
       </c>
@@ -2019,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:6">
       <c r="A67" t="n">
         <v>195</v>
       </c>
@@ -2039,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:6">
       <c r="A68" t="n">
         <v>196</v>
       </c>
@@ -2059,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:6">
       <c r="A69" t="n">
         <v>198</v>
       </c>
@@ -2079,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:6">
       <c r="A70" t="n">
         <v>199</v>
       </c>
@@ -2099,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:6">
       <c r="A71" t="n">
         <v>200</v>
       </c>
@@ -2119,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:6">
       <c r="A72" t="n">
         <v>201</v>
       </c>
@@ -2139,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:6">
       <c r="A73" t="n">
         <v>202</v>
       </c>
@@ -2159,7 +2095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:6">
       <c r="A74" t="n">
         <v>205</v>
       </c>
@@ -2179,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:6">
       <c r="A75" t="n">
         <v>208</v>
       </c>
@@ -2199,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:6">
       <c r="A76" t="n">
         <v>214</v>
       </c>
@@ -2213,13 +2149,13 @@
         <v>43899</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:6">
       <c r="A77" t="n">
         <v>215</v>
       </c>
@@ -2233,13 +2169,13 @@
         <v>43899</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:6">
       <c r="A78" t="n">
         <v>53</v>
       </c>
@@ -2247,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>43900</v>
@@ -2259,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:6">
       <c r="A79" t="n">
         <v>56</v>
       </c>
@@ -2279,7 +2215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:6">
       <c r="A80" t="n">
         <v>76</v>
       </c>
@@ -2287,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>43900</v>
@@ -2299,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:6">
       <c r="A81" t="n">
         <v>142</v>
       </c>
@@ -2307,19 +2243,19 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>43900</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:6">
       <c r="A82" t="n">
         <v>186</v>
       </c>
@@ -2327,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>43900</v>
@@ -2339,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:6">
       <c r="A83" t="n">
         <v>223</v>
       </c>
@@ -2359,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:6">
       <c r="A84" t="n">
         <v>239</v>
       </c>
@@ -2367,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>43901</v>
@@ -2379,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:6">
       <c r="A85" t="n">
         <v>51</v>
       </c>
@@ -2393,13 +2329,13 @@
         <v>43902</v>
       </c>
       <c r="E85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" t="s">
         <v>37</v>
       </c>
-      <c r="F85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="n">
         <v>88</v>
       </c>
@@ -2413,13 +2349,13 @@
         <v>43902</v>
       </c>
       <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
         <v>39</v>
       </c>
-      <c r="F86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="n">
         <v>148</v>
       </c>
@@ -2439,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:6">
       <c r="A88" t="n">
         <v>183</v>
       </c>
@@ -2459,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:6">
       <c r="A89" t="n">
         <v>197</v>
       </c>
@@ -2479,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:6">
       <c r="A90" t="n">
         <v>213</v>
       </c>
@@ -2493,13 +2429,13 @@
         <v>43902</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:6">
       <c r="A91" t="n">
         <v>243</v>
       </c>
@@ -2519,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:6">
       <c r="A92" t="n">
         <v>69</v>
       </c>
@@ -2533,13 +2469,13 @@
         <v>43903</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:6">
       <c r="A93" t="n">
         <v>150</v>
       </c>
@@ -2547,19 +2483,19 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:6">
       <c r="A94" t="n">
         <v>187</v>
       </c>
@@ -2579,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:6">
       <c r="A95" t="n">
         <v>55</v>
       </c>
@@ -2599,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:6">
       <c r="A96" t="n">
         <v>68</v>
       </c>
@@ -2619,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:6">
       <c r="A97" t="n">
         <v>97</v>
       </c>
@@ -2627,19 +2563,19 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:6">
       <c r="A98" t="n">
         <v>98</v>
       </c>
@@ -2647,19 +2583,19 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:6">
       <c r="A99" t="n">
         <v>120</v>
       </c>
@@ -2667,19 +2603,19 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:6">
       <c r="A100" t="n">
         <v>124</v>
       </c>
@@ -2687,19 +2623,19 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:6">
       <c r="A101" t="n">
         <v>125</v>
       </c>
@@ -2707,19 +2643,19 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:6">
       <c r="A102" t="n">
         <v>126</v>
       </c>
@@ -2727,19 +2663,19 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:6">
       <c r="A103" t="n">
         <v>127</v>
       </c>
@@ -2747,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>43904</v>
@@ -2759,7 +2695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:6">
       <c r="A104" t="n">
         <v>157</v>
       </c>
@@ -2767,19 +2703,19 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:6">
       <c r="A105" t="n">
         <v>158</v>
       </c>
@@ -2787,19 +2723,19 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:6">
       <c r="A106" t="n">
         <v>159</v>
       </c>
@@ -2807,19 +2743,19 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:6">
       <c r="A107" t="n">
         <v>171</v>
       </c>
@@ -2827,19 +2763,19 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:6">
       <c r="A108" t="n">
         <v>235</v>
       </c>
@@ -2847,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>43904</v>
@@ -2859,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:6">
       <c r="A109" t="n">
         <v>236</v>
       </c>
@@ -2867,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>43904</v>
@@ -2879,7 +2815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:6">
       <c r="A110" t="n">
         <v>58</v>
       </c>
@@ -2896,10 +2832,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="n">
         <v>63</v>
       </c>
@@ -2913,13 +2849,13 @@
         <v>43905</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="n">
         <v>75</v>
       </c>
@@ -2927,19 +2863,19 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:6">
       <c r="A113" t="n">
         <v>79</v>
       </c>
@@ -2947,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>43905</v>
@@ -2959,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:6">
       <c r="A114" t="n">
         <v>80</v>
       </c>
@@ -2967,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>43905</v>
@@ -2979,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:6">
       <c r="A115" t="n">
         <v>81</v>
       </c>
@@ -2987,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>43905</v>
@@ -2999,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:6">
       <c r="A116" t="n">
         <v>82</v>
       </c>
@@ -3007,19 +2943,19 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:6">
       <c r="A117" t="n">
         <v>83</v>
       </c>
@@ -3027,19 +2963,19 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:6">
       <c r="A118" t="n">
         <v>109</v>
       </c>
@@ -3047,19 +2983,19 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:6">
       <c r="A119" t="n">
         <v>114</v>
       </c>
@@ -3067,19 +3003,19 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:6">
       <c r="A120" t="n">
         <v>119</v>
       </c>
@@ -3087,19 +3023,19 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:6">
       <c r="A121" t="n">
         <v>137</v>
       </c>
@@ -3107,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>43905</v>
@@ -3119,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:6">
       <c r="A122" t="n">
         <v>151</v>
       </c>
@@ -3127,19 +3063,19 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:6">
       <c r="A123" t="n">
         <v>152</v>
       </c>
@@ -3147,19 +3083,19 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:6">
       <c r="A124" t="n">
         <v>185</v>
       </c>
@@ -3179,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:6">
       <c r="A125" t="n">
         <v>204</v>
       </c>
@@ -3187,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>43905</v>
@@ -3199,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:6">
       <c r="A126" t="n">
         <v>206</v>
       </c>
@@ -3207,19 +3143,19 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:6">
       <c r="A127" t="n">
         <v>207</v>
       </c>
@@ -3227,19 +3163,19 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:6">
       <c r="A128" t="n">
         <v>224</v>
       </c>
@@ -3247,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>43905</v>
@@ -3259,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:6">
       <c r="A129" t="n">
         <v>247</v>
       </c>
@@ -3267,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>43905</v>
@@ -3279,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:6">
       <c r="A130" t="n">
         <v>62</v>
       </c>
@@ -3293,13 +3229,13 @@
         <v>43906</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:6">
       <c r="A131" t="n">
         <v>64</v>
       </c>
@@ -3307,19 +3243,19 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:6">
       <c r="A132" t="n">
         <v>66</v>
       </c>
@@ -3327,19 +3263,19 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:6">
       <c r="A133" t="n">
         <v>70</v>
       </c>
@@ -3353,13 +3289,13 @@
         <v>43906</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:6">
       <c r="A134" t="n">
         <v>71</v>
       </c>
@@ -3373,13 +3309,13 @@
         <v>43906</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:6">
       <c r="A135" t="n">
         <v>74</v>
       </c>
@@ -3387,7 +3323,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>43906</v>
@@ -3399,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:6">
       <c r="A136" t="n">
         <v>90</v>
       </c>
@@ -3407,19 +3343,19 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>43906</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:6">
       <c r="A137" t="n">
         <v>136</v>
       </c>
@@ -3439,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:6">
       <c r="A138" t="n">
         <v>219</v>
       </c>
@@ -3447,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>43906</v>
@@ -3459,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:6">
       <c r="A139" t="n">
         <v>227</v>
       </c>
@@ -3473,13 +3409,13 @@
         <v>43906</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="n">
         <v>77</v>
       </c>
@@ -3493,13 +3429,13 @@
         <v>43907</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:6">
       <c r="A141" t="n">
         <v>78</v>
       </c>
@@ -3513,13 +3449,13 @@
         <v>43907</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:6">
       <c r="A142" t="n">
         <v>89</v>
       </c>
@@ -3527,19 +3463,19 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:6">
       <c r="A143" t="n">
         <v>92</v>
       </c>
@@ -3547,19 +3483,19 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E143" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:6">
       <c r="A144" t="n">
         <v>123</v>
       </c>
@@ -3567,19 +3503,19 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="E144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:6">
       <c r="A145" t="n">
         <v>161</v>
       </c>
@@ -3593,13 +3529,13 @@
         <v>43907</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="n">
         <v>162</v>
       </c>
@@ -3613,13 +3549,13 @@
         <v>43907</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="n">
         <v>163</v>
       </c>
@@ -3633,13 +3569,13 @@
         <v>43907</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="n">
         <v>203</v>
       </c>
@@ -3647,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>43907</v>
@@ -3659,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:6">
       <c r="A149" t="n">
         <v>220</v>
       </c>
@@ -3667,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>43907</v>
@@ -3679,7 +3615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:6">
       <c r="A150" t="n">
         <v>234</v>
       </c>
@@ -3687,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>43907</v>
@@ -3699,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:6">
       <c r="A151" t="n">
         <v>84</v>
       </c>
@@ -3713,13 +3649,13 @@
         <v>43908</v>
       </c>
       <c r="E151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:6">
       <c r="A152" t="n">
         <v>85</v>
       </c>
@@ -3739,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:6">
       <c r="A153" t="n">
         <v>93</v>
       </c>
@@ -3753,7 +3689,7 @@
         <v>43908</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -3767,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>43908</v>
@@ -3787,19 +3723,19 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:6">
       <c r="A156" t="n">
         <v>99</v>
       </c>
@@ -3807,19 +3743,19 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:6">
       <c r="A157" t="n">
         <v>101</v>
       </c>
@@ -3827,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>43908</v>
@@ -3839,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:6">
       <c r="A158" t="n">
         <v>102</v>
       </c>
@@ -3847,19 +3783,19 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:6">
       <c r="A159" t="n">
         <v>103</v>
       </c>
@@ -3867,19 +3803,19 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E159" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:6">
       <c r="A160" t="n">
         <v>104</v>
       </c>
@@ -3887,19 +3823,19 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:6">
       <c r="A161" t="n">
         <v>105</v>
       </c>
@@ -3907,7 +3843,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>43908</v>
@@ -3919,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:6">
       <c r="A162" t="n">
         <v>106</v>
       </c>
@@ -3927,7 +3863,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>43908</v>
@@ -3939,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:6">
       <c r="A163" t="n">
         <v>108</v>
       </c>
@@ -3947,19 +3883,19 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:6">
       <c r="A164" t="n">
         <v>112</v>
       </c>
@@ -3967,13 +3903,13 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -3987,13 +3923,13 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -4007,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>43908</v>
@@ -4027,13 +3963,13 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -4047,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>43908</v>
@@ -4067,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>43908</v>
@@ -4093,13 +4029,13 @@
         <v>43908</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="n">
         <v>96</v>
       </c>
@@ -4107,19 +4043,19 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:6">
       <c r="A172" t="n">
         <v>110</v>
       </c>
@@ -4127,19 +4063,19 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:6">
       <c r="A173" t="n">
         <v>111</v>
       </c>
@@ -4147,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>43909</v>
@@ -4159,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:6">
       <c r="A174" t="n">
         <v>116</v>
       </c>
@@ -4173,13 +4109,13 @@
         <v>43909</v>
       </c>
       <c r="E174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:6">
       <c r="A175" t="n">
         <v>117</v>
       </c>
@@ -4187,19 +4123,19 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="E175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:6">
       <c r="A176" t="n">
         <v>118</v>
       </c>
@@ -4207,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>43909</v>
@@ -4219,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:6">
       <c r="A177" t="n">
         <v>141</v>
       </c>
@@ -4239,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:6">
       <c r="A178" t="n">
         <v>122</v>
       </c>
@@ -4247,13 +4183,13 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -4267,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>43910</v>
@@ -4287,13 +4223,13 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -4307,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>43910</v>
@@ -4327,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>43910</v>
@@ -4353,7 +4289,7 @@
         <v>43910</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -4367,13 +4303,13 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -4387,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>43910</v>
@@ -4407,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>43910</v>
@@ -4427,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>43910</v>
@@ -4439,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:6">
       <c r="A188" t="n">
         <v>211</v>
       </c>
@@ -4447,19 +4383,19 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:6">
       <c r="A189" t="n">
         <v>222</v>
       </c>
@@ -4467,19 +4403,19 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F189" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="n">
         <v>228</v>
       </c>
@@ -4487,19 +4423,19 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:6">
       <c r="A191" t="n">
         <v>229</v>
       </c>
@@ -4507,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>43910</v>
@@ -4519,7 +4455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:6">
       <c r="A192" t="n">
         <v>230</v>
       </c>
@@ -4527,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>43910</v>
@@ -4539,7 +4475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:6">
       <c r="A193" t="n">
         <v>238</v>
       </c>
@@ -4547,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>43910</v>
@@ -4559,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:6">
       <c r="A194" t="n">
         <v>240</v>
       </c>
@@ -4567,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>43910</v>
@@ -4579,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:6">
       <c r="A195" t="n">
         <v>251</v>
       </c>
@@ -4587,7 +4523,7 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>43910</v>
@@ -4599,7 +4535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:6">
       <c r="A196" t="n">
         <v>257</v>
       </c>
@@ -4647,7 +4583,7 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>43911</v>
@@ -4667,13 +4603,13 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D199" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -4687,13 +4623,13 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D200" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -4707,13 +4643,13 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E201" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -4727,13 +4663,13 @@
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>43911</v>
       </c>
       <c r="E202" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -4747,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>43911</v>
@@ -4767,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>43911</v>
@@ -4787,7 +4723,7 @@
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>43911</v>
@@ -4807,13 +4743,13 @@
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D206" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E206" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -4827,13 +4763,13 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -4847,19 +4783,19 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D208" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="n">
         <v>133</v>
       </c>
@@ -4867,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>43912</v>
@@ -4879,7 +4815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:6">
       <c r="A210" t="n">
         <v>144</v>
       </c>
@@ -4887,19 +4823,19 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E210" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:6">
       <c r="A211" t="n">
         <v>145</v>
       </c>
@@ -4907,19 +4843,19 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="E211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:6">
       <c r="A212" t="n">
         <v>154</v>
       </c>
@@ -4927,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>43912</v>
@@ -4947,7 +4883,7 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>43912</v>
@@ -4967,7 +4903,7 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>43912</v>
@@ -4987,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>43912</v>
@@ -5007,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>43912</v>
@@ -5033,7 +4969,7 @@
         <v>43912</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -5047,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>43912</v>
@@ -5067,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>43913</v>
@@ -5079,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:6">
       <c r="A220" t="n">
         <v>164</v>
       </c>
@@ -5087,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>43913</v>
@@ -5099,7 +5035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:6">
       <c r="A221" t="n">
         <v>165</v>
       </c>
@@ -5107,19 +5043,19 @@
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="E221" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:6">
       <c r="A222" t="n">
         <v>216</v>
       </c>
@@ -5127,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D222" s="1" t="n">
         <v>43913</v>
@@ -5147,7 +5083,7 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>43913</v>
@@ -5159,58 +5095,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:4">
       <c r="A224" t="n">
+        <v>265</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>66</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="n">
+        <v>259</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="n">
         <v>221</v>
       </c>
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-      <c r="C224" t="s">
-        <v>29</v>
-      </c>
-      <c r="D224" s="1" t="n">
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" s="1" t="n">
         <v>43914</v>
-      </c>
-      <c r="E224" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="n">
-        <v>173</v>
-      </c>
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" t="s">
-        <v>29</v>
-      </c>
-      <c r="D225" s="1" t="n">
-        <v>43915</v>
-      </c>
-      <c r="E225" t="s">
-        <v>27</v>
-      </c>
-      <c r="F225" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" t="n">
-        <v>217</v>
-      </c>
-      <c r="B226" t="s">
-        <v>5</v>
-      </c>
-      <c r="C226" t="s">
-        <v>29</v>
-      </c>
-      <c r="D226" s="1" t="n">
-        <v>43915</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
@@ -5221,19 +5145,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="n">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -5241,13 +5165,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>43915</v>
@@ -5261,13 +5185,13 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="n">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>43915</v>
@@ -5281,13 +5205,13 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>43915</v>
@@ -5301,13 +5225,13 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>43915</v>
@@ -5321,13 +5245,13 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>43915</v>
@@ -5341,16 +5265,16 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="n">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -5361,16 +5285,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="n">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
@@ -5379,9 +5303,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -5390,24 +5314,18 @@
         <v>6</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>43917</v>
-      </c>
-      <c r="E235" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" t="s">
-        <v>10</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="n">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>43917</v>
@@ -5421,13 +5339,13 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="n">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>43917</v>
@@ -5441,19 +5359,19 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="n">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -5461,13 +5379,13 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="n">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>43917</v>
@@ -5481,16 +5399,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="n">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
@@ -5501,16 +5419,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>43929</v>
+        <v>43917</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
@@ -5519,9 +5437,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -5530,40 +5448,179 @@
         <v>6</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>43930</v>
-      </c>
-      <c r="E242" t="s">
-        <v>10</v>
-      </c>
-      <c r="F242" t="s">
-        <v>10</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="n">
+        <v>256</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>55</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>43917</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="n">
+        <v>250</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="n">
+        <v>260</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="n">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <v>43929</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="n">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <v>43930</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="n">
         <v>254</v>
       </c>
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243" s="1" t="n">
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="1" t="n">
         <v>43930</v>
       </c>
-      <c r="E243" t="s">
-        <v>10</v>
-      </c>
-      <c r="F243" t="s">
-        <v>10</v>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="n">
+        <v>255</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" s="1" t="n">
+        <v>43930</v>
+      </c>
+      <c r="E249" t="s">
+        <v>74</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="n">
+        <v>261</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="1" t="n">
+        <v>43931</v>
+      </c>
+      <c r="E250" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="n">
+        <v>264</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <v>43932</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1586719525" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1586837261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5572,16 +5629,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1586719525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1586719525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586719525" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1586719525" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1586837261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1586837261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586837261" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1586837261" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586719525" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1586837261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
